--- a/wdc_libs/ssechnpp-utils/new data/SSMS_DAU_RLD.xlsx
+++ b/wdc_libs/ssechnpp-utils/new data/SSMS_DAU_RLD.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\trina\Desktop\Chern\lastwork\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
     <workbookView showHorizontalScroll="0" showVerticalScroll="0" showSheetTabs="0" xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8205"/>
   </bookViews>
@@ -27,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="57">
   <si>
     <t>key</t>
   </si>
@@ -186,12 +181,38 @@
   </si>
   <si>
     <t>#SSMS_DAU_RLD_NOTE</t>
+  </si>
+  <si>
+    <t>dataset.preview.table</t>
+  </si>
+  <si>
+    <t>source(ds:'{{dataset.id}}');
+query([
+  { dim:'time', role:'row', items:[] },
+  { dim:'indicator', role:'col', items:[] } 
+]);
+format(p:3);
+order(dir:'row', index:-1, asc:'az');
+limit(start:0, length:5);</t>
+  </si>
+  <si>
+    <t>dataset.preview.line</t>
+  </si>
+  <si>
+    <t>source(ds:'{{dataset.id}}');
+query([
+  { dim:'time', role:'row', items:[] },
+  { dim:'indicator', role:'col', items:[] } 
+]);
+format(p:3);
+order(dir:'row', index:-1, asc:'az');
+line(x:-1);</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -237,7 +258,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -252,6 +273,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -524,7 +548,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -532,9 +556,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B28"/>
+  <dimension ref="A1:B30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -566,201 +592,217 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="1"/>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>7</v>
+    <row r="4" spans="1:2" ht="120" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="120" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>9</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="B6" s="1"/>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="2" t="b">
-        <v>1</v>
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>50</v>
+        <v>10</v>
+      </c>
+      <c r="B9" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>52</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>16</v>
+        <v>50</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>46</v>
+        <v>14</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>45</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>22</v>
+        <v>45</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>45</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>27</v>
+        <v>45</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>49</v>
+        <v>34</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>39</v>
+        <v>44</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="B30" s="1" t="s">
         <v>43</v>
       </c>
     </row>

--- a/wdc_libs/ssechnpp-utils/new data/SSMS_DAU_RLD.xlsx
+++ b/wdc_libs/ssechnpp-utils/new data/SSMS_DAU_RLD.xlsx
@@ -168,9 +168,6 @@
     <t>layout.indicator.SSMS_DAU004_RLD302.files</t>
   </si>
   <si>
-    <t>SSMS-DAU-004-RLD-302-VAL*.CSV</t>
-  </si>
-  <si>
     <t>#SSMS_DAU004_RLD302</t>
   </si>
   <si>
@@ -207,6 +204,9 @@
 format(p:3);
 order(dir:'row', index:-1, asc:'az');
 line(x:-1);</t>
+  </si>
+  <si>
+    <t>SSMS-DAU-004-RLD302-VAL*.CSV</t>
   </si>
 </sst>
 </file>
@@ -548,7 +548,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -558,14 +558,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="44" customWidth="1"/>
     <col min="2" max="2" width="60.140625" customWidth="1"/>
+    <col min="3" max="3" width="34.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -581,7 +582,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -594,18 +595,18 @@
     </row>
     <row r="4" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="B4" s="6" t="s">
         <v>53</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="B5" s="6" t="s">
         <v>55</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -651,7 +652,7 @@
         <v>13</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -659,7 +660,7 @@
         <v>14</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -763,7 +764,7 @@
         <v>47</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
@@ -771,7 +772,7 @@
         <v>44</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">

--- a/wdc_libs/ssechnpp-utils/new data/SSMS_DAU_RLD.xlsx
+++ b/wdc_libs/ssechnpp-utils/new data/SSMS_DAU_RLD.xlsx
@@ -206,7 +206,7 @@
 line(x:-1);</t>
   </si>
   <si>
-    <t>SSMS-DAU-004-RLD302-VAL*.CSV</t>
+    <t>SSMS-DAU004-RLD302-VAL*.CSV</t>
   </si>
 </sst>
 </file>
@@ -548,7 +548,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -559,7 +559,7 @@
   <dimension ref="A1:B30"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
